--- a/CashFlow/IDXX_cashflow.xlsx
+++ b/CashFlow/IDXX_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>869000000.0</v>
+        <v>-18885000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>854000000.0</v>
+        <v>-25815000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>622329000.0</v>
+        <v>-43649000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>384939000.0</v>
+        <v>-37219000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>158418000.0</v>
+        <v>-37306000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-34790000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>981000.0</v>
+        <v>295000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1288000.0</v>
+        <v>292000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>13607000.0</v>
+        <v>239560000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>25468000.0</v>
+        <v>172447000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>16992000.0</v>
+        <v>88216000.0</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
